--- a/Hoàng/2025/CT PT VÀ KHAI THÁC HẠ TẦNG KHU CÔNG NGHIỆP ĐÀ NẴNG (74-2025)/DS, DM KSK CÔNG TY PHÁT TRIỂN VÀ KHAI THÁC HẠ TẦNG KCN ĐÀ NẴNG.xlsx
+++ b/Hoàng/2025/CT PT VÀ KHAI THÁC HẠ TẦNG KHU CÔNG NGHIỆP ĐÀ NẴNG (74-2025)/DS, DM KSK CÔNG TY PHÁT TRIỂN VÀ KHAI THÁC HẠ TẦNG KCN ĐÀ NẴNG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DATA-TN\Hoàng\2025\CT PT VÀ KHAI THÁC HẠ TẦNG KHU CÔNG NGHIỆP ĐÀ NẴNG (74-2025)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E960851-23F7-41DB-9C1B-220598FF987F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF966AA5-BB22-4AAB-AFAD-711DE48E3D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DS" sheetId="2" r:id="rId1"/>
@@ -595,74 +595,74 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -948,7 +948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{919FC587-F844-4FA3-8344-E21A9C02D18B}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection sqref="A1:F40"/>
     </sheetView>
   </sheetViews>
@@ -1771,93 +1771,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E70A52B9-70EA-4674-8342-83C5849E4D5A}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:E28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="69.28515625" customWidth="1"/>
     <col min="4" max="4" width="49.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="28" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="28">
+      <c r="A3" s="32">
         <v>1</v>
       </c>
       <c r="B3" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="32" t="s">
         <v>71</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="33">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="29"/>
-      <c r="C4" s="28"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="29"/>
-      <c r="C5" s="28"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="33"/>
     </row>
     <row r="6" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="29"/>
-      <c r="C6" s="28"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="33"/>
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="29"/>
-      <c r="C7" s="28"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="33"/>
     </row>
     <row r="8" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -1872,7 +1872,7 @@
       <c r="D8" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <v>39</v>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       <c r="D9" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="9">
         <v>39</v>
       </c>
     </row>
@@ -1902,7 +1902,7 @@
       <c r="D10" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="9">
         <v>39</v>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       <c r="D11" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="9">
         <v>39</v>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       <c r="D12" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="9">
         <v>39</v>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
       <c r="D13" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="9">
         <v>39</v>
       </c>
     </row>
@@ -1968,7 +1968,7 @@
       <c r="D14" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="9">
         <v>39</v>
       </c>
     </row>
@@ -1979,28 +1979,28 @@
       <c r="B15" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="9">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>10</v>
       </c>
       <c r="B16" s="29"/>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="9">
         <v>39</v>
       </c>
     </row>
@@ -2017,7 +2017,7 @@
       <c r="D17" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="9">
         <v>39</v>
       </c>
     </row>
@@ -2028,13 +2028,13 @@
       <c r="B18" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>103</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="9">
         <v>39</v>
       </c>
     </row>
@@ -2043,13 +2043,13 @@
         <v>13</v>
       </c>
       <c r="B19" s="29"/>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>105</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="9">
         <v>39</v>
       </c>
     </row>
@@ -2066,7 +2066,7 @@
       <c r="D20" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="9">
         <v>39</v>
       </c>
     </row>
@@ -2077,11 +2077,11 @@
       <c r="B21" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="25">
+      <c r="D21" s="17"/>
+      <c r="E21" s="22">
         <v>11</v>
       </c>
     </row>
@@ -2090,11 +2090,11 @@
         <v>16</v>
       </c>
       <c r="B22" s="29"/>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="25">
+      <c r="D22" s="17"/>
+      <c r="E22" s="22">
         <v>11</v>
       </c>
     </row>
@@ -2103,13 +2103,13 @@
         <v>17</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="18">
         <v>39</v>
       </c>
     </row>
@@ -2118,65 +2118,65 @@
         <v>18</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24">
+      <c r="D24" s="20"/>
+      <c r="E24" s="21">
         <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="15"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16">
+      <c r="A26" s="14">
         <v>1</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="23">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="16">
+      <c r="A27" s="14">
         <v>2</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="18" t="s">
+      <c r="C27" s="27"/>
+      <c r="D27" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="E27" s="27">
+      <c r="E27" s="24">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="16">
+      <c r="A28" s="14">
         <v>3</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="18" t="s">
+      <c r="C28" s="27"/>
+      <c r="D28" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="E28" s="27">
+      <c r="E28" s="24">
         <v>3</v>
       </c>
     </row>
@@ -2242,122 +2242,122 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="32">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="32">
+      <c r="C2" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="25">
         <v>1971</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="32">
+      <c r="A3" s="25">
         <v>2</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="32">
+      <c r="C3" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="25">
         <v>1983</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="32">
+      <c r="A4" s="25">
         <v>18</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="32">
+      <c r="C4" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="25">
         <v>1979</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="25" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="32">
+      <c r="A5" s="25">
         <v>19</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="32">
+      <c r="C5" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="25">
         <v>1977</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="25" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
+      <c r="A6" s="25">
         <v>20</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="32">
+      <c r="C6" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="25">
         <v>1977</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="25" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="32">
+      <c r="A7" s="25">
         <v>29</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="25">
         <v>1974</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="25" t="s">
         <v>10</v>
       </c>
     </row>
